--- a/MasterFramework/src/test/resources/TestData/AutomationTestData.xlsx
+++ b/MasterFramework/src/test/resources/TestData/AutomationTestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="3225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="3225"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenario" sheetId="1" r:id="rId1"/>
     <sheet name="VerifyCRMLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="LeadLostFlow" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>TCID</t>
   </si>
@@ -57,13 +57,187 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>https://kmb.crmnext.com/sng7/app/login/login</t>
-  </si>
-  <si>
     <t>acid_qa</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>LeadLostFlow</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>LeadWonFlow</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>LeadLostEContact</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>LeadWonEContact</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>ProspectLeadWon</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>ProspectLeadLost</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>JOCallReportFlow</t>
+  </si>
+  <si>
+    <t>https://arabcorp.crmnext.com/sn7/app/login/login</t>
+  </si>
+  <si>
+    <t>SearchBy</t>
+  </si>
+  <si>
+    <t>ExistingContact</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>LeadSource</t>
+  </si>
+  <si>
+    <t>LeadPriority</t>
+  </si>
+  <si>
+    <t>CountryofBooking</t>
+  </si>
+  <si>
+    <t>ProductCategory</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>EnterCurrency</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>NetExpectedRevenue</t>
+  </si>
+  <si>
+    <t>Tenor</t>
+  </si>
+  <si>
+    <t>RateOffered</t>
+  </si>
+  <si>
+    <t>DueDate</t>
+  </si>
+  <si>
+    <t>Appointmentdate</t>
+  </si>
+  <si>
+    <t>Appointmenttime</t>
+  </si>
+  <si>
+    <t>LeadLostreason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM / SRM </t>
+  </si>
+  <si>
+    <t>Amal</t>
+  </si>
+  <si>
+    <t>Client Name in English</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Mehra</t>
+  </si>
+  <si>
+    <t>988765355</t>
+  </si>
+  <si>
+    <t>Referral</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Fixed Deposits</t>
+  </si>
+  <si>
+    <t>U.A.E Dirham</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>6 Months</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>09/10/2022</t>
+  </si>
+  <si>
+    <t>12:30 PM</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>Mansi Client</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>View Sub Category</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>My Primary Clients</t>
   </si>
   <si>
     <t>Fail</t>
@@ -153,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -161,12 +335,44 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -477,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,14 +719,102 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C9">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -529,12 +823,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" location="VerifyCRMLogin!A1" display="VerifyCRMLogin"/>
+    <hyperlink ref="B3" location="LeadLostFlow!A1" display="LeadLostFlow"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -544,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -588,10 +883,204 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" customWidth="true" width="27.42578125"/>
+    <col min="8" max="8" customWidth="true" width="10.85546875"/>
+    <col min="9" max="9" customWidth="true" width="31.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="7"/>
+    </row>
+    <row r="2" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>